--- a/Exc2/Проверочный лист для аудита ИБ.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sergey/Documents/Projects/Yandex-Practicum/sprint7/architecture-sprint-7/Exc2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852CD48E-2A15-A14A-A2EB-2E6C41770F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8BB94C-C9FF-564C-A0A4-C4E3217C2618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="760" windowWidth="14580" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22380" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>№</t>
   </si>
@@ -221,13 +221,28 @@
   </si>
   <si>
     <t>да</t>
+  </si>
+  <si>
+    <t>Этот раздел необходим, так как у бизнеса есть проблема с ограничением доступа к данным</t>
+  </si>
+  <si>
+    <t>Компания накапливает данные, а так же у конкурента произошла утечка. Необходимо проветси аудит безопасности</t>
+  </si>
+  <si>
+    <t>Так как у конкурентов прозошла утечка, необходимо проверить инфраструктуру, чтобы быть готовым к атаке.</t>
+  </si>
+  <si>
+    <t>Необходимо управлять инцидентами, чтобы сотрудники могли вовремя узнавать о них и были готовыми к новым.</t>
+  </si>
+  <si>
+    <t>Ряд специфических аспектов, которые так же важны для обеспечения безопасности инфруструктуры бизнеса.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -238,6 +253,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -266,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -314,23 +335,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,27 +377,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="116" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="13"/>
@@ -601,8 +640,9 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" ht="27" customHeight="1">
@@ -615,17 +655,19 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="30.75" customHeight="1">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="3:6" ht="83.5" customHeight="1">
       <c r="C5" s="2">
@@ -634,8 +676,8 @@
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -646,8 +688,8 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="3:6" ht="80.25" customHeight="1">
       <c r="C7" s="2">
@@ -656,8 +698,8 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="3:6" ht="77.25" customHeight="1">
       <c r="C8" s="2">
@@ -666,8 +708,8 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="3:6" ht="87.75" customHeight="1">
       <c r="C9" s="2">
@@ -676,8 +718,8 @@
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="3:6" ht="69" customHeight="1">
       <c r="C10" s="2">
@@ -686,8 +728,8 @@
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -698,8 +740,8 @@
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="3:6" ht="62.25" customHeight="1">
       <c r="C12" s="2">
@@ -708,8 +750,8 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="3:6" ht="55.5" customHeight="1">
       <c r="C13" s="2">
@@ -718,10 +760,10 @@
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="3:6" ht="62.5" customHeight="1">
       <c r="C14" s="2">
@@ -730,8 +772,8 @@
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="3:6" ht="62.5" customHeight="1">
       <c r="C15" s="2">
@@ -740,8 +782,8 @@
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="3:6" ht="68.25" customHeight="1">
       <c r="C16" s="2">
@@ -750,8 +792,8 @@
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="3:6" ht="52.75" customHeight="1">
       <c r="C17" s="2">
@@ -760,8 +802,8 @@
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="3:6" ht="60.75" customHeight="1">
       <c r="C18" s="2">
@@ -770,16 +812,18 @@
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="3:6" ht="36.75" customHeight="1">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20" spans="3:6" ht="75.75" customHeight="1">
       <c r="C20" s="2">
@@ -788,8 +832,8 @@
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="3:6" ht="63.75" customHeight="1">
       <c r="C21" s="2">
@@ -798,8 +842,8 @@
       <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="3:6" ht="54" customHeight="1">
       <c r="C22" s="2">
@@ -808,8 +852,8 @@
       <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="3:6" ht="82.5" customHeight="1">
       <c r="C23" s="2">
@@ -818,8 +862,8 @@
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="3:6" ht="64.5" customHeight="1">
       <c r="C24" s="2">
@@ -828,8 +872,8 @@
       <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="3:6" ht="56.25" customHeight="1">
       <c r="C25" s="2">
@@ -838,8 +882,8 @@
       <c r="D25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="3:6" ht="125.25" customHeight="1">
       <c r="C26" s="2">
@@ -848,8 +892,8 @@
       <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="3:6" ht="90" customHeight="1">
       <c r="C27" s="2">
@@ -858,8 +902,8 @@
       <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="3:6" ht="55.5" customHeight="1">
       <c r="C28" s="2">
@@ -868,8 +912,8 @@
       <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="3:6" ht="51.75" customHeight="1">
       <c r="C29" s="2">
@@ -878,8 +922,8 @@
       <c r="D29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="3:6" ht="53.25" customHeight="1">
       <c r="C30" s="2">
@@ -888,8 +932,8 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="3:6" ht="52.5" customHeight="1">
       <c r="C31" s="2">
@@ -898,8 +942,8 @@
       <c r="D31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="3:6" ht="51" customHeight="1">
       <c r="C32" s="2">
@@ -908,8 +952,8 @@
       <c r="D32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="3:6" ht="48.75" customHeight="1">
       <c r="C33" s="2">
@@ -918,16 +962,18 @@
       <c r="D33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="3:6" ht="29.25" customHeight="1">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="3:6" ht="69" customHeight="1">
       <c r="C35" s="2">
@@ -936,10 +982,10 @@
       <c r="D35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="3:6" ht="90.75" customHeight="1">
       <c r="C36" s="2">
@@ -948,10 +994,10 @@
       <c r="D36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="3:6" ht="80.25" customHeight="1">
       <c r="C37" s="2">
@@ -960,8 +1006,8 @@
       <c r="D37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="3:6" ht="70.5" customHeight="1">
       <c r="C38" s="2">
@@ -970,8 +1016,8 @@
       <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="3:6" ht="80.25" customHeight="1">
       <c r="C39" s="2">
@@ -980,8 +1026,8 @@
       <c r="D39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="3:6" ht="82.5" customHeight="1">
       <c r="C40" s="2">
@@ -990,8 +1036,8 @@
       <c r="D40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="3:6" ht="81" customHeight="1">
       <c r="C41" s="2">
@@ -1000,8 +1046,8 @@
       <c r="D41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="3:6" ht="78.75" customHeight="1">
       <c r="C42" s="2">
@@ -1010,8 +1056,8 @@
       <c r="D42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="3:6" ht="93.75" customHeight="1">
       <c r="C43" s="2">
@@ -1020,8 +1066,8 @@
       <c r="D43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="3:6" ht="63.75" customHeight="1">
       <c r="C44" s="2">
@@ -1030,8 +1076,8 @@
       <c r="D44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="3:6" ht="53.25" customHeight="1">
       <c r="C45" s="2">
@@ -1040,8 +1086,8 @@
       <c r="D45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="3:6" ht="54.75" customHeight="1">
       <c r="C46" s="2">
@@ -1050,16 +1096,18 @@
       <c r="D46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="3:6" ht="24.75" customHeight="1">
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="3:6" ht="82.5" customHeight="1">
       <c r="C48" s="2">
@@ -1068,8 +1116,8 @@
       <c r="D48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="3:6" ht="101.25" customHeight="1">
       <c r="C49" s="2">
@@ -1078,8 +1126,8 @@
       <c r="D49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="3:6" ht="105.75" customHeight="1">
       <c r="C50" s="2">
@@ -1088,8 +1136,8 @@
       <c r="D50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="3:6" ht="80.25" customHeight="1">
       <c r="C51" s="2">
@@ -1098,8 +1146,8 @@
       <c r="D51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="3:6" ht="88.5" customHeight="1">
       <c r="C52" s="2">
@@ -1108,8 +1156,8 @@
       <c r="D52" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="3:6" ht="90.75" customHeight="1">
       <c r="C53" s="2">
@@ -1118,24 +1166,26 @@
       <c r="D53" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="3:6" ht="24" customHeight="1">
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="55" spans="3:6" ht="24" customHeight="1">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="3:6" ht="102.75" customHeight="1">
       <c r="C56" s="2">
@@ -1144,8 +1194,8 @@
       <c r="D56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="3:6" ht="69" customHeight="1">
       <c r="C57" s="2">
@@ -1154,8 +1204,8 @@
       <c r="D57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="3:6" ht="93.75" customHeight="1">
       <c r="C58" s="2">
@@ -1164,8 +1214,8 @@
       <c r="D58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="3:6" ht="78.75" customHeight="1">
       <c r="C59" s="2">
@@ -1174,16 +1224,16 @@
       <c r="D59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="3:6" ht="25.5" customHeight="1">
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="3:6" ht="67.5" customHeight="1">
       <c r="C61" s="2">
@@ -1192,8 +1242,8 @@
       <c r="D61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="3:6" ht="84" customHeight="1">
       <c r="C62" s="2">
@@ -1202,8 +1252,8 @@
       <c r="D62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="3:6" ht="84.75" customHeight="1">
       <c r="C63" s="2">
@@ -1212,18 +1262,18 @@
       <c r="D63" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
